--- a/Prophet_Model_Accuracy Metriccs.xlsx
+++ b/Prophet_Model_Accuracy Metriccs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TTX\fwdfilesfromttx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF3F53-A84F-4CA0-9508-28EF62AC3F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340ABD6A-0544-4DC2-8ED8-1EB54A313BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E8DD30E-BA53-46E7-9520-46F8CBB59755}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve"> Prophet(yearly_seasonality=True, weekly_seasonality=False, daily_seasonality=False, seasonality_mode='multiplicative')</t>
   </si>
@@ -126,7 +126,13 @@
 model.fit(trainX, trainY, epochs=100, batch_size=1, verbose=2)</t>
   </si>
   <si>
-    <t>\</t>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,48 +210,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,21 +249,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF72DFAE-CC0A-48B8-8CB1-81902F836341}">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -670,7 +636,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="29">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -690,7 +656,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="116">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
@@ -708,7 +674,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="58">
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +692,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="72.5">
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -744,7 +710,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="72.5">
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
@@ -762,13 +728,14 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="16">
+      <c r="D10" s="3"/>
+      <c r="E10" s="13">
         <v>223</v>
       </c>
       <c r="F10" s="7">
@@ -779,42 +746,146 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="72.5">
-      <c r="B11" s="18"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
         <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="72.5">
-      <c r="B12" s="19"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
         <v>226</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13">
+        <v>201.68</v>
+      </c>
+      <c r="F13" s="13">
+        <v>53870.12</v>
+      </c>
+      <c r="G13" s="13">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13">
+        <v>215.89</v>
+      </c>
+      <c r="F14" s="13">
+        <v>69966.41</v>
+      </c>
+      <c r="G14" s="13">
+        <v>264.51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13">
+        <v>195.37</v>
+      </c>
+      <c r="F15" s="13">
+        <v>55052.99</v>
+      </c>
+      <c r="G15" s="13">
+        <v>234.63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13">
+        <v>192.95</v>
+      </c>
+      <c r="F16" s="13">
+        <v>53009.61</v>
+      </c>
+      <c r="G16" s="13">
+        <v>230.24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
